--- a/test_map/Resultat_projet.xlsx
+++ b/test_map/Resultat_projet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matt/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matt/Documents/ULB/Recherche op/Projet/Project/RO_project_grp2/test_map/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB2CE57-7505-5846-AE8E-1CCCFD38E64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA37135E-2EF8-7A45-A7D1-DB789759AC1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16680" xr2:uid="{CBA217DB-05FF-C044-A1B6-BE94E7081959}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Solution exploitation agricole</t>
   </si>
@@ -87,6 +87,33 @@
   </si>
   <si>
     <t>[[34, 13], [50, 17], [50, 19], [51, 18], [51, 19], [52, 17], [52, 18], [52, 19], [53, 16], [53, 17], [53, 18], [53, 19], [54, 16], [54, 17], [54, 18], [55, 18]]</t>
+  </si>
+  <si>
+    <t>[(17, 53), (17, 54), (16, 53), (18, 53), (19, 53), (18, 54), (18, 52), (19, 52), (17, 55), (15, 53), (20, 52), (20, 53), (19, 54), (18, 51), (21, 54), (19, 51)]</t>
+  </si>
+  <si>
+    <t>[(19, 54), (18, 54), (19, 53), (20, 53), (20, 55), (18, 52), (18, 55), (19, 52), (21, 54), (17, 53), (20, 54), (19, 55), (18, 53), (17, 52), (21, 52), (18, 56), (13, 34)]</t>
+  </si>
+  <si>
+    <t>[(19, 55), (18, 55), (17, 55), (19, 54), (20, 56), (17, 54), (17, 53), (16, 55), (15, 55), (18, 52), (20, 53), (21, 53), (17, 52), (18, 53), (19, 53), (18, 54), (4, 49)]</t>
+  </si>
+  <si>
+    <t>[(17, 53), (17, 54), (18, 53), (19, 53), (18, 52), (19, 54), (19, 52), (19, 51), (18, 54), (20, 52), (16, 53), (19, 55), (19, 56), (17, 55), (20, 53), (18, 51)]</t>
+  </si>
+  <si>
+    <t>[(17, 52), (18, 53), (18, 54), (19, 53), (19, 55), (19, 52), (17, 54), (18, 52), (19, 51), (20, 50), (17, 53), (19, 54), (18, 51), (18, 55), (16, 53), (18, 56)]</t>
+  </si>
+  <si>
+    <t>[(19, 53), (19, 52), (19, 51), (19, 54), (20, 52), (18, 54), (18, 53), (20, 53), (19, 55), (17, 52), (17, 53), (17, 55), (17, 54), (16, 55), (16, 53), (18, 51)]</t>
+  </si>
+  <si>
+    <t>[(19, 16), (18, 16), (19, 15), (19, 17), (17, 16), (18, 15), (22, 10), (25, 9), (25, 10), (24, 9), (24, 11), (23, 10), (25, 11), (24, 8), (26, 11)]</t>
+  </si>
+  <si>
+    <t>[(18, 55), (19, 56), (17, 54), (18, 54), (16, 55), (17, 55), (18, 53), (17, 53), (19, 54), (19, 52), (17, 52), (19, 55), (18, 56), (20, 53), (16, 51), (20, 55), (4, 51)]</t>
+  </si>
+  <si>
+    <t>[(18, 54), (17, 53), (18, 53), (16, 54), (17, 54), (16, 52), (19, 55), (19, 54), (16, 51), (18, 52), (19, 52), (16, 55), (18, 51), (20, 54), (20, 53), (21, 53)]</t>
   </si>
 </sst>
 </file>
@@ -102,7 +129,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -112,6 +139,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -133,8 +166,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -451,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2BB6E47-08CA-1740-81A3-E7F979409181}">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:R22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B8" sqref="B8:M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -467,20 +502,20 @@
       <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="O2" s="3" t="s">
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="O2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+      <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -497,12 +532,12 @@
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
-      <c r="O3" s="3" t="s">
+      <c r="O3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="3"/>
-      <c r="Q3" s="3"/>
-      <c r="R3" s="3"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -522,12 +557,12 @@
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
-      <c r="R4" s="3"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5">
@@ -547,12 +582,12 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-      <c r="O5" s="3" t="s">
+      <c r="O5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="P5" s="3"/>
-      <c r="Q5" s="3"/>
-      <c r="R5" s="3"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6">
@@ -706,18 +741,188 @@
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
     </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="B9:M9"/>
-    <mergeCell ref="B10:M10"/>
-    <mergeCell ref="B11:M11"/>
-    <mergeCell ref="B12:M12"/>
-    <mergeCell ref="B13:M13"/>
-    <mergeCell ref="O5:R5"/>
-    <mergeCell ref="B4:M4"/>
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="B6:M6"/>
-    <mergeCell ref="B7:M7"/>
+  <mergeCells count="26">
+    <mergeCell ref="B19:M19"/>
+    <mergeCell ref="B20:M20"/>
+    <mergeCell ref="B21:M21"/>
+    <mergeCell ref="B22:M22"/>
+    <mergeCell ref="B14:M14"/>
+    <mergeCell ref="B15:M15"/>
+    <mergeCell ref="B16:M16"/>
+    <mergeCell ref="B17:M17"/>
+    <mergeCell ref="B18:M18"/>
     <mergeCell ref="B8:M8"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="B2:D2"/>
@@ -725,6 +930,16 @@
     <mergeCell ref="O2:R2"/>
     <mergeCell ref="O3:R3"/>
     <mergeCell ref="O4:R4"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="B6:M6"/>
+    <mergeCell ref="B7:M7"/>
+    <mergeCell ref="B9:M9"/>
+    <mergeCell ref="B10:M10"/>
+    <mergeCell ref="B11:M11"/>
+    <mergeCell ref="B12:M12"/>
+    <mergeCell ref="B13:M13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
